--- a/raw_data/20200818_saline/20200818_Sensor3_Test_90.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_90.xlsx
@@ -1,3667 +1,4083 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6F785-2650-436D-8F55-1AA8E9DAFCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>80661.256683</v>
       </c>
       <c r="B2" s="1">
-        <v>22.405905</v>
+        <v>22.405905000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1151.800000</v>
+        <v>1151.8</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.060000</v>
+        <v>-258.06</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>80671.439510</v>
+        <v>80671.439509999997</v>
       </c>
       <c r="G2" s="1">
-        <v>22.408733</v>
+        <v>22.408733000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.630000</v>
+        <v>1173.6300000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.582000</v>
+        <v>-217.58199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>80681.539916</v>
+        <v>80681.539915999994</v>
       </c>
       <c r="L2" s="1">
-        <v>22.411539</v>
+        <v>22.411539000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1202.650000</v>
+        <v>1202.6500000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.794000</v>
+        <v>-151.79400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>80691.753201</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.414376</v>
+        <v>22.414376000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1210.970000</v>
+        <v>1210.97</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.785000</v>
+        <v>-129.785</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>80701.997566</v>
+        <v>80701.997566000005</v>
       </c>
       <c r="V2" s="1">
-        <v>22.417222</v>
+        <v>22.417221999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.921000</v>
+        <v>-108.92100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>80712.111456</v>
+        <v>80712.111455999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.420031</v>
+        <v>22.420031000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1227.590000</v>
+        <v>1227.5899999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.884100</v>
+        <v>-91.884100000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>80722.665826</v>
+        <v>80722.665825999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.422963</v>
+        <v>22.422962999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1232.510000</v>
+        <v>1232.51</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.219300</v>
+        <v>-87.219300000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>80733.148276</v>
+        <v>80733.148276000007</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.425875</v>
+        <v>22.425875000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1234.840000</v>
+        <v>1234.8399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.697300</v>
+        <v>-89.697299999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>80743.704665</v>
+        <v>80743.704664999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.428807</v>
+        <v>22.428806999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.441000</v>
+        <v>-101.441</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>80754.677626</v>
+        <v>80754.677626000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.431855</v>
+        <v>22.431854999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.551000</v>
+        <v>-120.551</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>80765.372890</v>
+        <v>80765.372889999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.434826</v>
+        <v>22.434826000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.886000</v>
+        <v>-137.886</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>80776.343409</v>
+        <v>80776.343408999994</v>
       </c>
       <c r="BE2" s="1">
         <v>22.437873</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.040000</v>
+        <v>1301.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.538000</v>
+        <v>-219.53800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>80787.660590</v>
+        <v>80787.66059</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.441017</v>
+        <v>22.441016999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.567000</v>
+        <v>-355.56700000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>80798.939613</v>
+        <v>80798.939612999995</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.444150</v>
+        <v>22.44415</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.610000</v>
+        <v>1484.61</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.951000</v>
+        <v>-576.95100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>80809.286160</v>
+        <v>80809.286160000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.447024</v>
+        <v>22.447023999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.630000</v>
+        <v>1616.63</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.977000</v>
+        <v>-825.97699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>80820.755153</v>
+        <v>80820.755153000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.450210</v>
+        <v>22.450209999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1768.760000</v>
+        <v>1768.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1096.940000</v>
+        <v>-1096.94</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>80831.868514</v>
+        <v>80831.868514000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.453297</v>
+        <v>22.453296999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2186.070000</v>
+        <v>2186.0700000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1752.770000</v>
+        <v>-1752.77</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>80661.366755</v>
+        <v>80661.366754999995</v>
       </c>
       <c r="B3" s="1">
-        <v>22.405935</v>
+        <v>22.405934999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1152.020000</v>
+        <v>1152.02</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.031000</v>
+        <v>-258.03100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>80671.798150</v>
+        <v>80671.798150000002</v>
       </c>
       <c r="G3" s="1">
-        <v>22.408833</v>
+        <v>22.408833000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.720000</v>
+        <v>1173.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.742000</v>
+        <v>-216.74199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>80681.926456</v>
+        <v>80681.926456000001</v>
       </c>
       <c r="L3" s="1">
-        <v>22.411646</v>
+        <v>22.411646000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1202.840000</v>
+        <v>1202.8399999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.917000</v>
+        <v>-151.917</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>80692.137067</v>
+        <v>80692.137067000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.414483</v>
+        <v>22.414483000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.822000</v>
+        <v>-129.822</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>80702.423101</v>
+        <v>80702.423100999993</v>
       </c>
       <c r="V3" s="1">
-        <v>22.417340</v>
+        <v>22.417339999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.835000</v>
+        <v>-108.83499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>80712.533056</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.420148</v>
+        <v>22.420148000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1227.520000</v>
+        <v>1227.52</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.767500</v>
+        <v>-91.767499999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>80723.066130</v>
+        <v>80723.066130000007</v>
       </c>
       <c r="AF3" s="1">
         <v>22.423074</v>
       </c>
       <c r="AG3" s="1">
-        <v>1232.250000</v>
+        <v>1232.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.343900</v>
+        <v>-87.343900000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>80733.518650</v>
+        <v>80733.518649999998</v>
       </c>
       <c r="AK3" s="1">
         <v>22.425977</v>
       </c>
       <c r="AL3" s="1">
-        <v>1234.850000</v>
+        <v>1234.8499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.722300</v>
+        <v>-89.722300000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>80744.087046</v>
+        <v>80744.087046000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.428913</v>
+        <v>22.428913000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.417000</v>
+        <v>-101.417</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>80755.039207</v>
+        <v>80755.039206999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.431955</v>
+        <v>22.431954999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.780000</v>
+        <v>1252.78</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.544000</v>
+        <v>-120.544</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>80766.108425</v>
+        <v>80766.108424999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.435030</v>
+        <v>22.435030000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.894000</v>
+        <v>-137.89400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>80777.085894</v>
+        <v>80777.085894000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.438079</v>
+        <v>22.438078999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.532000</v>
+        <v>-219.53200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>80788.066319</v>
+        <v>80788.066319000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.441130</v>
+        <v>22.441130000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.606000</v>
+        <v>-355.60599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>80799.366173</v>
+        <v>80799.366173000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.444268</v>
+        <v>22.444268000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.962000</v>
+        <v>-576.96199999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>80809.722640</v>
+        <v>80809.722640000007</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.447145</v>
+        <v>22.447144999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.590000</v>
+        <v>1616.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.989000</v>
+        <v>-825.98900000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>80821.565648</v>
+        <v>80821.565648000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.450435</v>
+        <v>22.450434999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1768.570000</v>
+        <v>1768.57</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.080000</v>
+        <v>-1097.08</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>80832.817361</v>
+        <v>80832.817360999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.453560</v>
+        <v>22.45356</v>
       </c>
       <c r="CE3" s="1">
-        <v>2183.620000</v>
+        <v>2183.62</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1752.220000</v>
+        <v>-1752.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>80661.708360</v>
+        <v>80661.708360000004</v>
       </c>
       <c r="B4" s="1">
-        <v>22.406030</v>
+        <v>22.406030000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1151.930000</v>
+        <v>1151.93</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.044000</v>
+        <v>-258.04399999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>80672.140733</v>
+        <v>80672.140732999993</v>
       </c>
       <c r="G4" s="1">
         <v>22.408928</v>
       </c>
       <c r="H4" s="1">
-        <v>1174.070000</v>
+        <v>1174.07</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.975000</v>
+        <v>-216.97499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>80682.348520</v>
+        <v>80682.34852</v>
       </c>
       <c r="L4" s="1">
-        <v>22.411763</v>
+        <v>22.411763000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1202.830000</v>
+        <v>1202.83</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.832000</v>
+        <v>-151.83199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>80692.564122</v>
+        <v>80692.564121999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.414601</v>
+        <v>22.414601000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1211.000000</v>
+        <v>1211</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.825000</v>
+        <v>-129.82499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>80702.723181</v>
+        <v>80702.723180999994</v>
       </c>
       <c r="V4" s="1">
-        <v>22.417423</v>
+        <v>22.417422999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.839000</v>
+        <v>-108.839</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>80712.873807</v>
+        <v>80712.873806999996</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.420243</v>
+        <v>22.420242999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1227.680000</v>
+        <v>1227.68</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.781300</v>
+        <v>-91.781300000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>80723.409826</v>
+        <v>80723.409826000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.423169</v>
+        <v>22.423169000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.234200</v>
+        <v>-87.234200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>80733.866980</v>
+        <v>80733.866980000006</v>
       </c>
       <c r="AK4" s="1">
         <v>22.426074</v>
       </c>
       <c r="AL4" s="1">
-        <v>1234.840000</v>
+        <v>1234.8399999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.731300</v>
+        <v>-89.731300000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>80744.449128</v>
+        <v>80744.449127999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.429014</v>
+        <v>22.429013999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.420000</v>
+        <v>-101.42</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>80755.770837</v>
+        <v>80755.770837000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.432159</v>
+        <v>22.432158999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.750000</v>
+        <v>1252.75</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.548000</v>
+        <v>-120.548</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>80766.469017</v>
+        <v>80766.469016999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.435130</v>
+        <v>22.435130000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.885000</v>
+        <v>-137.88499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>80777.443995</v>
+        <v>80777.443994999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.438179</v>
+        <v>22.438179000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.030000</v>
+        <v>1301.03</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.504000</v>
+        <v>-219.50399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>80788.443309</v>
+        <v>80788.443308999995</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.441234</v>
+        <v>22.441234000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.544000</v>
+        <v>-355.54399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>80800.076972</v>
+        <v>80800.076971999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.444466</v>
+        <v>22.444465999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.590000</v>
+        <v>1484.59</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.959000</v>
+        <v>-576.95899999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>80810.452256</v>
+        <v>80810.452256000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.447348</v>
+        <v>22.447348000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.540000</v>
+        <v>1616.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.015000</v>
+        <v>-826.01499999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>80821.688128</v>
+        <v>80821.688127999994</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.450469</v>
+        <v>22.450468999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1768.540000</v>
+        <v>1768.54</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>80832.992449</v>
+        <v>80832.992448999998</v>
       </c>
       <c r="CD4" s="1">
         <v>22.453609</v>
       </c>
       <c r="CE4" s="1">
-        <v>2185.220000</v>
+        <v>2185.2199999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1753.320000</v>
+        <v>-1753.32</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>80662.054213</v>
+        <v>80662.054212999996</v>
       </c>
       <c r="B5" s="1">
         <v>22.406126</v>
       </c>
       <c r="C5" s="1">
-        <v>1151.970000</v>
+        <v>1151.97</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.864000</v>
+        <v>-257.86399999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>80672.563477</v>
+        <v>80672.563477000003</v>
       </c>
       <c r="G5" s="1">
-        <v>22.409045</v>
+        <v>22.409044999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1174.180000</v>
+        <v>1174.18</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.550000</v>
+        <v>-217.55</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>80682.647607</v>
+        <v>80682.647607000006</v>
       </c>
       <c r="L5" s="1">
-        <v>22.411847</v>
+        <v>22.411847000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1202.680000</v>
+        <v>1202.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.960000</v>
+        <v>-151.96</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>80692.857258</v>
+        <v>80692.857258000004</v>
       </c>
       <c r="Q5" s="1">
         <v>22.414683</v>
       </c>
       <c r="R5" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.816000</v>
+        <v>-129.816</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>80703.065916</v>
+        <v>80703.065916000007</v>
       </c>
       <c r="V5" s="1">
-        <v>22.417518</v>
+        <v>22.417518000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1218.480000</v>
+        <v>1218.48</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.921000</v>
+        <v>-108.92100000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>80713.222000</v>
+        <v>80713.221999999994</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.420339</v>
+        <v>22.420338999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1227.590000</v>
+        <v>1227.5899999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.815800</v>
+        <v>-91.815799999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>80723.752771</v>
+        <v>80723.752770999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.423265</v>
+        <v>22.423265000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1232.430000</v>
+        <v>1232.43</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.966900</v>
+        <v>-86.966899999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>80734.562867</v>
+        <v>80734.562867000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.426267</v>
+        <v>22.426266999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1234.870000</v>
+        <v>1234.8699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.714900</v>
+        <v>-89.7149</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>80745.176758</v>
+        <v>80745.176758000001</v>
       </c>
       <c r="AP5" s="1">
         <v>22.429216</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.442000</v>
+        <v>-101.44199999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>80756.162646</v>
+        <v>80756.162645999997</v>
       </c>
       <c r="AU5" s="1">
         <v>22.432267</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.790000</v>
+        <v>1252.79</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.518000</v>
+        <v>-120.518</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>80766.827136</v>
+        <v>80766.827136000007</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.435230</v>
+        <v>22.435230000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.905000</v>
+        <v>-137.905</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>80777.803594</v>
+        <v>80777.803593999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.438279</v>
+        <v>22.438279000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.547000</v>
+        <v>-219.547</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>80789.129738</v>
+        <v>80789.129738000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.441425</v>
+        <v>22.441424999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1370.410000</v>
+        <v>1370.41</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.573000</v>
+        <v>-355.57299999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>80800.189532</v>
+        <v>80800.189532000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.444497</v>
+        <v>22.444496999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.610000</v>
+        <v>1484.61</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.970000</v>
+        <v>-576.97</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>80810.563358</v>
+        <v>80810.563357999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.447379</v>
+        <v>22.447379000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.550000</v>
+        <v>1616.55</v>
       </c>
       <c r="BV5" s="1">
-        <v>-825.929000</v>
+        <v>-825.92899999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>80822.127352</v>
+        <v>80822.127351999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.450591</v>
+        <v>22.450590999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1768.500000</v>
+        <v>1768.5</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1096.980000</v>
+        <v>-1096.98</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>80833.513744</v>
+        <v>80833.513743999996</v>
       </c>
       <c r="CD5" s="1">
         <v>22.453754</v>
       </c>
       <c r="CE5" s="1">
-        <v>2186.490000</v>
+        <v>2186.4899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1751.590000</v>
+        <v>-1751.59</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>80662.726786</v>
+        <v>80662.726785999999</v>
       </c>
       <c r="B6" s="1">
-        <v>22.406313</v>
+        <v>22.406313000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1152.030000</v>
+        <v>1152.03</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.974000</v>
+        <v>-257.97399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>80672.831813</v>
+        <v>80672.831812999997</v>
       </c>
       <c r="G6" s="1">
-        <v>22.409120</v>
+        <v>22.409120000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.680000</v>
+        <v>1173.68</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.436000</v>
+        <v>-217.43600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>80682.993816</v>
+        <v>80682.993816000002</v>
       </c>
       <c r="L6" s="1">
-        <v>22.411943</v>
+        <v>22.411943000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.590000</v>
+        <v>-151.59</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>80693.204961</v>
+        <v>80693.204960999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.414779</v>
+        <v>22.414778999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.907000</v>
+        <v>-129.90700000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>80703.409159</v>
+        <v>80703.409159000003</v>
       </c>
       <c r="V6" s="1">
         <v>22.417614</v>
       </c>
       <c r="W6" s="1">
-        <v>1218.470000</v>
+        <v>1218.47</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.881000</v>
+        <v>-108.881</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>80713.913918</v>
+        <v>80713.913918000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.420532</v>
+        <v>22.420532000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.768500</v>
+        <v>-91.768500000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>80724.441041</v>
+        <v>80724.441040999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.423456</v>
+        <v>22.423456000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1231.930000</v>
+        <v>1231.93</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.167700</v>
+        <v>-87.167699999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>80734.912051</v>
+        <v>80734.912051000007</v>
       </c>
       <c r="AK6" s="1">
         <v>22.426364</v>
       </c>
       <c r="AL6" s="1">
-        <v>1234.860000</v>
+        <v>1234.8599999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.714900</v>
+        <v>-89.7149</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>80745.554708</v>
+        <v>80745.554707999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.429321</v>
+        <v>22.429321000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.399000</v>
+        <v>-101.399</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>80756.525221</v>
+        <v>80756.525221000004</v>
       </c>
       <c r="AU6" s="1">
         <v>22.432368</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.539000</v>
+        <v>-120.539</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>80767.490775</v>
+        <v>80767.490774999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.435414</v>
+        <v>22.435414000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.884000</v>
+        <v>-137.88399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>80778.474185</v>
+        <v>80778.474184999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.438465</v>
+        <v>22.438465000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.030000</v>
+        <v>1301.03</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.517000</v>
+        <v>-219.517</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>80789.567706</v>
+        <v>80789.567706000002</v>
       </c>
       <c r="BJ6" s="1">
         <v>22.441547</v>
       </c>
       <c r="BK6" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.590000</v>
+        <v>-355.59</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>80800.610172</v>
+        <v>80800.610172000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.444614</v>
+        <v>22.444614000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.580000</v>
+        <v>1484.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.939000</v>
+        <v>-576.93899999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>80811.002814</v>
+        <v>80811.002814000007</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.447501</v>
+        <v>22.447500999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.620000</v>
+        <v>1616.62</v>
       </c>
       <c r="BV6" s="1">
-        <v>-825.995000</v>
+        <v>-825.995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>80822.584398</v>
+        <v>80822.584398000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.450718</v>
+        <v>22.450717999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1768.680000</v>
+        <v>1768.68</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>80834.029120</v>
+        <v>80834.029120000007</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.453897</v>
+        <v>22.453897000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2184.520000</v>
+        <v>2184.52</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1750.770000</v>
+        <v>-1750.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>80663.068529</v>
+        <v>80663.068528999996</v>
       </c>
       <c r="B7" s="1">
-        <v>22.406408</v>
+        <v>22.406407999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1152.180000</v>
+        <v>1152.18</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.018000</v>
+        <v>-258.01799999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>80673.178485</v>
+        <v>80673.178484999997</v>
       </c>
       <c r="G7" s="1">
-        <v>22.409216</v>
+        <v>22.409216000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.960000</v>
+        <v>1173.96</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.731000</v>
+        <v>-217.73099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>80683.337047</v>
+        <v>80683.337046999994</v>
       </c>
       <c r="L7" s="1">
-        <v>22.412038</v>
+        <v>22.412037999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1202.620000</v>
+        <v>1202.6199999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.000000</v>
+        <v>-152</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>80693.554633</v>
+        <v>80693.554633000007</v>
       </c>
       <c r="Q7" s="1">
         <v>22.414876</v>
       </c>
       <c r="R7" s="1">
-        <v>1210.950000</v>
+        <v>1210.95</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.782000</v>
+        <v>-129.78200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>80704.096603</v>
+        <v>80704.096602999998</v>
       </c>
       <c r="V7" s="1">
-        <v>22.417805</v>
+        <v>22.417805000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.890000</v>
+        <v>-108.89</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>80714.264125</v>
+        <v>80714.264125000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.420629</v>
+        <v>22.420629000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1227.590000</v>
+        <v>1227.5899999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.765100</v>
+        <v>-91.765100000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>80724.772870</v>
+        <v>80724.772870000001</v>
       </c>
       <c r="AF7" s="1">
         <v>22.423548</v>
       </c>
       <c r="AG7" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.678600</v>
+        <v>-86.678600000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>80735.259283</v>
+        <v>80735.259283000007</v>
       </c>
       <c r="AK7" s="1">
         <v>22.426461</v>
       </c>
       <c r="AL7" s="1">
-        <v>1234.860000</v>
+        <v>1234.8599999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.730300</v>
+        <v>-89.7303</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>80745.912362</v>
+        <v>80745.912362000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.429420</v>
+        <v>22.42942</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.890000</v>
+        <v>1242.8900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.428000</v>
+        <v>-101.428</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>80757.209737</v>
+        <v>80757.209736999997</v>
       </c>
       <c r="AU7" s="1">
         <v>22.432558</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.546000</v>
+        <v>-120.54600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>80767.905928</v>
+        <v>80767.905927999993</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.435529</v>
+        <v>22.435528999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.886000</v>
+        <v>-137.886</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>80778.918104</v>
+        <v>80778.918103999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.438588</v>
+        <v>22.438587999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.519000</v>
+        <v>-219.51900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>80789.943177</v>
+        <v>80789.943176999994</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.441651</v>
       </c>
       <c r="BK7" s="1">
-        <v>1370.420000</v>
+        <v>1370.42</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.642000</v>
+        <v>-355.642</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>80801.007435</v>
+        <v>80801.007435000007</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.444724</v>
+        <v>22.444724000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.620000</v>
+        <v>1484.62</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.908000</v>
+        <v>-576.90800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>80811.413533</v>
+        <v>80811.413532999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.447615</v>
+        <v>22.447614999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.580000</v>
+        <v>1616.58</v>
       </c>
       <c r="BV7" s="1">
-        <v>-825.898000</v>
+        <v>-825.89800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>80823.031801</v>
+        <v>80823.031801000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.450842</v>
+        <v>22.450842000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1768.730000</v>
+        <v>1768.73</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1096.920000</v>
+        <v>-1096.92</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>80834.548894</v>
+        <v>80834.548894000007</v>
       </c>
       <c r="CD7" s="1">
         <v>22.454041</v>
       </c>
       <c r="CE7" s="1">
-        <v>2184.660000</v>
+        <v>2184.66</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1751.140000</v>
+        <v>-1751.14</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>80663.414737</v>
+        <v>80663.414736999999</v>
       </c>
       <c r="B8" s="1">
-        <v>22.406504</v>
+        <v>22.406504000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1151.900000</v>
+        <v>1151.9000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.899000</v>
+        <v>-257.899</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80673.523203</v>
+        <v>80673.523203000004</v>
       </c>
       <c r="G8" s="1">
         <v>22.409312</v>
       </c>
       <c r="H8" s="1">
-        <v>1174.610000</v>
+        <v>1174.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.537000</v>
+        <v>-217.53700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>80684.031941</v>
+        <v>80684.031940999994</v>
       </c>
       <c r="L8" s="1">
-        <v>22.412231</v>
+        <v>22.412230999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1202.490000</v>
+        <v>1202.49</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.860000</v>
+        <v>-151.86000000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>80694.249032</v>
+        <v>80694.249032000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.415069</v>
+        <v>22.415068999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1210.970000</v>
+        <v>1210.97</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.788000</v>
+        <v>-129.78800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>80704.440827</v>
+        <v>80704.440826999999</v>
       </c>
       <c r="V8" s="1">
-        <v>22.417900</v>
+        <v>22.417899999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.894000</v>
+        <v>-108.89400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>80714.612782</v>
+        <v>80714.612781999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.420726</v>
+        <v>22.420725999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1227.480000</v>
+        <v>1227.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.830000</v>
+        <v>-91.83</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>80725.123007</v>
+        <v>80725.123007000002</v>
       </c>
       <c r="AF8" s="1">
         <v>22.423645</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.689800</v>
+        <v>-86.689800000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>80735.925873</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.426646</v>
+        <v>22.426646000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1234.880000</v>
+        <v>1234.8800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.723500</v>
+        <v>-89.723500000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>80746.584087</v>
+        <v>80746.584086999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.429607</v>
+        <v>22.429607000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.820000</v>
+        <v>1242.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.438000</v>
+        <v>-101.438</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>80757.646676</v>
+        <v>80757.646676000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.432680</v>
+        <v>22.432680000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.790000</v>
+        <v>1252.79</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.545000</v>
+        <v>-120.545</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>80768.291846</v>
+        <v>80768.291845999993</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.435637</v>
       </c>
       <c r="BA8" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.879000</v>
+        <v>-137.87899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>80779.279223</v>
+        <v>80779.279223000005</v>
       </c>
       <c r="BE8" s="1">
         <v>22.438689</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.539000</v>
+        <v>-219.53899999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>80790.321625</v>
+        <v>80790.321624999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.441756</v>
+        <v>22.441756000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.579000</v>
+        <v>-355.57900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>80801.433995</v>
+        <v>80801.433994999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.444843</v>
+        <v>22.444842999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.580000</v>
+        <v>1484.58</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.917000</v>
+        <v>-576.91700000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>80811.836092</v>
+        <v>80811.836091999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.447732</v>
+        <v>22.447731999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.510000</v>
+        <v>1616.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-825.948000</v>
+        <v>-825.94799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>80823.489101</v>
+        <v>80823.489100999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.450969</v>
+        <v>22.450969000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1768.700000</v>
+        <v>1768.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>80835.097471</v>
+        <v>80835.097471000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.454194</v>
+        <v>22.454194000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2185.660000</v>
+        <v>2185.66</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1750.710000</v>
+        <v>-1750.71</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>80664.100208</v>
+        <v>80664.100208000003</v>
       </c>
       <c r="B9" s="1">
-        <v>22.406695</v>
+        <v>22.406694999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1151.990000</v>
+        <v>1151.99</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.298000</v>
+        <v>-258.298</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>80674.211651</v>
+        <v>80674.211651000005</v>
       </c>
       <c r="G9" s="1">
-        <v>22.409503</v>
+        <v>22.409503000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.620000</v>
+        <v>1173.6199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.268000</v>
+        <v>-217.268</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>80684.383637</v>
+        <v>80684.383637000006</v>
       </c>
       <c r="L9" s="1">
         <v>22.412329</v>
       </c>
       <c r="M9" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.033000</v>
+        <v>-152.03299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>80694.598711</v>
+        <v>80694.598710999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.415166</v>
+        <v>22.415165999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.865000</v>
+        <v>-129.86500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>80704.789514</v>
+        <v>80704.789514000004</v>
       </c>
       <c r="V9" s="1">
         <v>22.417997</v>
       </c>
       <c r="W9" s="1">
-        <v>1218.890000</v>
+        <v>1218.8900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.888000</v>
+        <v>-108.88800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>80715.270482</v>
+        <v>80715.270482000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.420908</v>
+        <v>22.420908000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.844100</v>
+        <v>-91.844099999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>80725.783679</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.423829</v>
+        <v>22.423829000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1227.350000</v>
+        <v>1227.3499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.741200</v>
+        <v>-86.741200000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>80736.305808</v>
+        <v>80736.305808000005</v>
       </c>
       <c r="AK9" s="1">
         <v>22.426752</v>
       </c>
       <c r="AL9" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.739200</v>
+        <v>-89.739199999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>80746.993602</v>
+        <v>80746.993602000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.429720</v>
+        <v>22.42972</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.438000</v>
+        <v>-101.438</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>80758.009252</v>
+        <v>80758.009252000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.432780</v>
+        <v>22.432780000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.780000</v>
+        <v>1252.78</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.527000</v>
+        <v>-120.527</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>80768.648821</v>
+        <v>80768.648820999995</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.435736</v>
+        <v>22.435735999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.899000</v>
+        <v>-137.899</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>80779.639319</v>
+        <v>80779.639318999994</v>
       </c>
       <c r="BE9" s="1">
         <v>22.438789</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.502000</v>
+        <v>-219.50200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>80790.759592</v>
+        <v>80790.759592000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.441878</v>
+        <v>22.441877999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.583000</v>
+        <v>-355.58300000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>80801.827852</v>
+        <v>80801.827852000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.444952</v>
+        <v>22.444952000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.620000</v>
+        <v>1484.62</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.914000</v>
+        <v>-576.91399999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>80812.246284</v>
+        <v>80812.246283999993</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.447846</v>
+        <v>22.447845999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.550000</v>
+        <v>1616.55</v>
       </c>
       <c r="BV9" s="1">
-        <v>-825.909000</v>
+        <v>-825.90899999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>80823.937484</v>
+        <v>80823.937483999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.451094</v>
+        <v>22.451094000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1768.620000</v>
+        <v>1768.62</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>80835.627693</v>
+        <v>80835.627693000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.454341</v>
+        <v>22.454340999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2183.980000</v>
+        <v>2183.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1751.150000</v>
+        <v>-1751.15</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>80664.446417</v>
+        <v>80664.446416999999</v>
       </c>
       <c r="B10" s="1">
-        <v>22.406791</v>
+        <v>22.406790999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1152.160000</v>
+        <v>1152.1600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.731000</v>
+        <v>-257.73099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>80674.554388</v>
+        <v>80674.554388000004</v>
       </c>
       <c r="G10" s="1">
-        <v>22.409598</v>
+        <v>22.409597999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1174.190000</v>
+        <v>1174.19</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.031000</v>
+        <v>-217.03100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>80684.730836</v>
+        <v>80684.730836000002</v>
       </c>
       <c r="L10" s="1">
-        <v>22.412425</v>
+        <v>22.412424999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1202.690000</v>
+        <v>1202.69</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.979000</v>
+        <v>-151.97900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>80694.949384</v>
+        <v>80694.949384000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.415264</v>
+        <v>22.415264000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1211.030000</v>
+        <v>1211.03</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.906000</v>
+        <v>-129.90600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>80705.453195</v>
+        <v>80705.453194999995</v>
       </c>
       <c r="V10" s="1">
-        <v>22.418181</v>
+        <v>22.418181000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1218.710000</v>
+        <v>1218.71</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.918000</v>
+        <v>-108.91800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>80715.660370</v>
+        <v>80715.660369999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.421017</v>
+        <v>22.421016999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1227.570000</v>
+        <v>1227.57</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.791700</v>
+        <v>-91.791700000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>80726.159646</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.423933</v>
+        <v>22.423933000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1227.310000</v>
+        <v>1227.31</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.532200</v>
+        <v>-86.532200000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>80736.655488</v>
+        <v>80736.655488000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.426849</v>
+        <v>22.426849000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1234.860000</v>
+        <v>1234.8599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.693800</v>
+        <v>-89.693799999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>80747.378530</v>
+        <v>80747.378530000002</v>
       </c>
       <c r="AP10" s="1">
         <v>22.429827</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.429000</v>
+        <v>-101.429</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>80758.379267</v>
+        <v>80758.379266999997</v>
       </c>
       <c r="AU10" s="1">
         <v>22.432883</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.545000</v>
+        <v>-120.545</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>80769.082063</v>
+        <v>80769.082062999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.435856</v>
+        <v>22.435856000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.908000</v>
+        <v>-137.90799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>80780.078284</v>
+        <v>80780.078284000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.438911</v>
+        <v>22.438911000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.506000</v>
+        <v>-219.506</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>80791.090442</v>
+        <v>80791.090442000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.441970</v>
+        <v>22.441970000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.598000</v>
+        <v>-355.59800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>80802.246474</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.445068</v>
+        <v>22.445067999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.680000</v>
+        <v>1484.68</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.007000</v>
+        <v>-577.00699999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>80812.661577</v>
+        <v>80812.661577000006</v>
       </c>
       <c r="BT10" s="1">
         <v>22.447962</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.540000</v>
+        <v>1616.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-825.951000</v>
+        <v>-825.95100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>80824.395788</v>
+        <v>80824.395787999994</v>
       </c>
       <c r="BY10" s="1">
         <v>22.451221</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1768.820000</v>
+        <v>1768.82</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1096.920000</v>
+        <v>-1096.92</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>80836.146541</v>
+        <v>80836.146540999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.454485</v>
+        <v>22.454484999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2184.340000</v>
+        <v>2184.34</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1752.820000</v>
+        <v>-1752.82</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>80664.788159</v>
+        <v>80664.788159000003</v>
       </c>
       <c r="B11" s="1">
         <v>22.406886</v>
       </c>
       <c r="C11" s="1">
-        <v>1151.970000</v>
+        <v>1151.97</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.945000</v>
+        <v>-257.94499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>80674.899106</v>
+        <v>80674.899105999997</v>
       </c>
       <c r="G11" s="1">
-        <v>22.409694</v>
+        <v>22.409693999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1174.020000</v>
+        <v>1174.02</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.942000</v>
+        <v>-216.94200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>80685.392965</v>
+        <v>80685.392965000006</v>
       </c>
       <c r="L11" s="1">
         <v>22.412609</v>
       </c>
       <c r="M11" s="1">
-        <v>1202.620000</v>
+        <v>1202.6199999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.151000</v>
+        <v>-152.15100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>80695.612535</v>
+        <v>80695.612534999993</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.415448</v>
+        <v>22.415448000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.872000</v>
+        <v>-129.87200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>80705.820211</v>
+        <v>80705.820210999998</v>
       </c>
       <c r="V11" s="1">
-        <v>22.418283</v>
+        <v>22.418282999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1218.590000</v>
+        <v>1218.5899999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.952000</v>
+        <v>-108.952</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>80716.007563</v>
+        <v>80716.007563000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.421113</v>
+        <v>22.421112999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1227.510000</v>
+        <v>1227.51</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.937100</v>
+        <v>-91.937100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>80726.501886</v>
+        <v>80726.501885999998</v>
       </c>
       <c r="AF11" s="1">
         <v>22.424028</v>
       </c>
       <c r="AG11" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.599700</v>
+        <v>-86.599699999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>80737.003681</v>
+        <v>80737.003681000002</v>
       </c>
       <c r="AK11" s="1">
         <v>22.426945</v>
       </c>
       <c r="AL11" s="1">
-        <v>1234.870000</v>
+        <v>1234.8699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.714500</v>
+        <v>-89.714500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>80747.801619</v>
+        <v>80747.801619000005</v>
       </c>
       <c r="AP11" s="1">
         <v>22.429945</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.425000</v>
+        <v>-101.425</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>80758.798387</v>
+        <v>80758.798387000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.433000</v>
+        <v>22.433</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.520000</v>
+        <v>-120.52</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>80769.365433</v>
+        <v>80769.365432999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.435935</v>
+        <v>22.435935000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.896000</v>
+        <v>-137.89599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>80780.365926</v>
+        <v>80780.365925999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.438991</v>
+        <v>22.438991000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.528000</v>
+        <v>-219.52799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>80791.466392</v>
+        <v>80791.466392000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.442074</v>
+        <v>22.442074000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.592000</v>
+        <v>-355.59199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>80802.643241</v>
+        <v>80802.643240999998</v>
       </c>
       <c r="BO11" s="1">
         <v>22.445179</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.916000</v>
+        <v>-576.91600000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>80813.078194</v>
+        <v>80813.078194000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.448077</v>
+        <v>22.448077000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.520000</v>
+        <v>1616.52</v>
       </c>
       <c r="BV11" s="1">
-        <v>-825.866000</v>
+        <v>-825.86599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>80824.843776</v>
+        <v>80824.843775999994</v>
       </c>
       <c r="BY11" s="1">
         <v>22.451345</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1768.700000</v>
+        <v>1768.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>80836.664333</v>
+        <v>80836.664332999993</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.454629</v>
+        <v>22.454629000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2186.140000</v>
+        <v>2186.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1752.170000</v>
+        <v>-1752.17</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>80665.443407</v>
+        <v>80665.443406999999</v>
       </c>
       <c r="B12" s="1">
-        <v>22.407068</v>
+        <v>22.407067999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1152.120000</v>
+        <v>1152.1199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.792000</v>
+        <v>-257.79199999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>80675.562256</v>
+        <v>80675.562256000005</v>
       </c>
       <c r="G12" s="1">
-        <v>22.409878</v>
+        <v>22.409877999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1174.580000</v>
+        <v>1174.58</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.261000</v>
+        <v>-217.261</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>80685.762024</v>
+        <v>80685.762023999996</v>
       </c>
       <c r="L12" s="1">
-        <v>22.412712</v>
+        <v>22.412711999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.902000</v>
+        <v>-151.90199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>80695.993462</v>
+        <v>80695.993461999999</v>
       </c>
       <c r="Q12" s="1">
         <v>22.415554</v>
       </c>
       <c r="R12" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.717000</v>
+        <v>-129.71700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>80706.161448</v>
+        <v>80706.161447999999</v>
       </c>
       <c r="V12" s="1">
-        <v>22.418378</v>
+        <v>22.418378000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1220.170000</v>
+        <v>1220.17</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.080000</v>
+        <v>-109.08</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>80716.357211</v>
+        <v>80716.357210999995</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.421210</v>
+        <v>22.421209999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.829900</v>
+        <v>-91.829899999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>80726.840654</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.424122</v>
+        <v>22.424122000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.480000</v>
+        <v>1227.48</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.544800</v>
+        <v>-86.544799999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>80737.422303</v>
+        <v>80737.422302999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.427062</v>
+        <v>22.427061999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1234.880000</v>
+        <v>1234.8800000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.720100</v>
+        <v>-89.720100000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>80748.098230</v>
+        <v>80748.098230000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.430027</v>
+        <v>22.430026999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.392000</v>
+        <v>-101.392</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>80759.106441</v>
+        <v>80759.106440999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.433085</v>
+        <v>22.433084999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.531000</v>
+        <v>-120.53100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>80769.726244</v>
+        <v>80769.726244000005</v>
       </c>
       <c r="AZ12" s="1">
         <v>22.436035</v>
       </c>
       <c r="BA12" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.864000</v>
+        <v>-137.864</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>80780.724039</v>
+        <v>80780.724038999993</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.439090</v>
+        <v>22.43909</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.537000</v>
+        <v>-219.53700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>80791.837895</v>
+        <v>80791.837895000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.442177</v>
+        <v>22.442177000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.571000</v>
+        <v>-355.57100000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>80803.065337</v>
+        <v>80803.065337000007</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.445296</v>
+        <v>22.445295999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.620000</v>
+        <v>1484.62</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.935000</v>
+        <v>-576.93499999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>80813.909898</v>
+        <v>80813.909897999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.448308</v>
+        <v>22.448308000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.510000</v>
+        <v>1616.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-825.888000</v>
+        <v>-825.88800000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>80825.301483</v>
+        <v>80825.301483000003</v>
       </c>
       <c r="BY12" s="1">
         <v>22.451473</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1768.670000</v>
+        <v>1768.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>80837.180207</v>
+        <v>80837.180206999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.454772</v>
+        <v>22.454771999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2185.160000</v>
+        <v>2185.16</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1750.380000</v>
+        <v>-1750.38</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>80665.815869</v>
+        <v>80665.815868999998</v>
       </c>
       <c r="B13" s="1">
-        <v>22.407171</v>
+        <v>22.407171000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1151.980000</v>
+        <v>1151.98</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.895000</v>
+        <v>-257.89499999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>80675.933760</v>
+        <v>80675.93376</v>
       </c>
       <c r="G13" s="1">
-        <v>22.409982</v>
+        <v>22.409981999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1174.550000</v>
+        <v>1174.55</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.263000</v>
+        <v>-217.26300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>80686.111171</v>
+        <v>80686.111170999997</v>
       </c>
       <c r="L13" s="1">
-        <v>22.412809</v>
+        <v>22.412808999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1202.700000</v>
+        <v>1202.7</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.960000</v>
+        <v>-151.96</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>80696.343674</v>
+        <v>80696.343674000003</v>
       </c>
       <c r="Q13" s="1">
         <v>22.415651</v>
       </c>
       <c r="R13" s="1">
-        <v>1210.960000</v>
+        <v>1210.96</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.795000</v>
+        <v>-129.79499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>80706.507173</v>
+        <v>80706.507173000005</v>
       </c>
       <c r="V13" s="1">
         <v>22.418474</v>
       </c>
       <c r="W13" s="1">
-        <v>1219.510000</v>
+        <v>1219.51</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.030000</v>
+        <v>-109.03</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>80716.785754</v>
+        <v>80716.785753999997</v>
       </c>
       <c r="AA13" s="1">
         <v>22.421329</v>
       </c>
       <c r="AB13" s="1">
-        <v>1227.520000</v>
+        <v>1227.52</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.885400</v>
+        <v>-91.885400000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>80727.266748</v>
+        <v>80727.266747999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.424241</v>
+        <v>22.424240999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1227.460000</v>
+        <v>1227.46</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.593400</v>
+        <v>-86.593400000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>80737.701733</v>
+        <v>80737.701732999994</v>
       </c>
       <c r="AK13" s="1">
         <v>22.427139</v>
       </c>
       <c r="AL13" s="1">
-        <v>1234.890000</v>
+        <v>1234.8900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.702100</v>
+        <v>-89.702100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>80748.461264</v>
+        <v>80748.461263999998</v>
       </c>
       <c r="AP13" s="1">
         <v>22.430128</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.421000</v>
+        <v>-101.42100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>80759.471484</v>
+        <v>80759.471483999994</v>
       </c>
       <c r="AU13" s="1">
         <v>22.433187</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.531000</v>
+        <v>-120.53100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>80770.085876</v>
+        <v>80770.085875999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>22.436135</v>
       </c>
       <c r="BA13" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.890000</v>
+        <v>-137.88999999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>80781.085162</v>
+        <v>80781.085162000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.439190</v>
+        <v>22.43919</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.504000</v>
+        <v>-219.50399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>80792.590326</v>
+        <v>80792.590326000005</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.442386</v>
+        <v>22.442385999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.561000</v>
+        <v>-355.56099999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>80803.461143</v>
+        <v>80803.461142999993</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.445406</v>
+        <v>22.445405999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.941000</v>
+        <v>-576.94100000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>80814.343865</v>
+        <v>80814.343865000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.448429</v>
+        <v>22.448429000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.460000</v>
+        <v>1616.46</v>
       </c>
       <c r="BV13" s="1">
-        <v>-825.885000</v>
+        <v>-825.88499999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>80825.747386</v>
+        <v>80825.747386000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.451596</v>
+        <v>22.451595999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1768.760000</v>
+        <v>1768.76</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1096.870000</v>
+        <v>-1096.8699999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>80838.016922</v>
+        <v>80838.016921999995</v>
       </c>
       <c r="CD13" s="1">
         <v>22.455005</v>
       </c>
       <c r="CE13" s="1">
-        <v>2183.550000</v>
+        <v>2183.5500000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1751.700000</v>
+        <v>-1751.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>80666.158127</v>
+        <v>80666.158127000002</v>
       </c>
       <c r="B14" s="1">
         <v>22.407266</v>
       </c>
       <c r="C14" s="1">
-        <v>1152.030000</v>
+        <v>1152.03</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.085000</v>
+        <v>-258.08499999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>80676.280003</v>
+        <v>80676.280003000007</v>
       </c>
       <c r="G14" s="1">
-        <v>22.410078</v>
+        <v>22.410077999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1174.320000</v>
+        <v>1174.32</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.954000</v>
+        <v>-216.95400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>80686.459858</v>
+        <v>80686.459858000002</v>
       </c>
       <c r="L14" s="1">
         <v>22.412906</v>
       </c>
       <c r="M14" s="1">
-        <v>1202.810000</v>
+        <v>1202.81</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.843000</v>
+        <v>-151.84299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>80696.784581</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.415773</v>
+        <v>22.415773000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.834000</v>
+        <v>-129.834</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>80706.941191</v>
+        <v>80706.941191000005</v>
       </c>
       <c r="V14" s="1">
         <v>22.418595</v>
       </c>
       <c r="W14" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.008000</v>
+        <v>-109.008</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>80717.054090</v>
+        <v>80717.054090000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.421404</v>
+        <v>22.421403999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.886100</v>
+        <v>-91.886099999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>80727.553437</v>
+        <v>80727.553436999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.424320</v>
+        <v>22.424320000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.480000</v>
+        <v>1227.48</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.601200</v>
+        <v>-86.601200000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>80738.047263</v>
@@ -3670,497 +4086,497 @@
         <v>22.427235</v>
       </c>
       <c r="AL14" s="1">
-        <v>1234.850000</v>
+        <v>1234.8499999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.742900</v>
+        <v>-89.742900000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>80748.819376</v>
+        <v>80748.819375999999</v>
       </c>
       <c r="AP14" s="1">
         <v>22.430228</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.431000</v>
+        <v>-101.431</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>80759.836520</v>
+        <v>80759.836519999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.433288</v>
+        <v>22.433288000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.527000</v>
+        <v>-120.527</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>80770.809011</v>
+        <v>80770.809011000005</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.436336</v>
+        <v>22.436336000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1261.240000</v>
+        <v>1261.24</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.869000</v>
+        <v>-137.869</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>80781.817221</v>
+        <v>80781.817221000005</v>
       </c>
       <c r="BE14" s="1">
         <v>22.439394</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.508000</v>
+        <v>-219.50800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>80792.968315</v>
+        <v>80792.968315000006</v>
       </c>
       <c r="BJ14" s="1">
         <v>22.442491</v>
       </c>
       <c r="BK14" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.552000</v>
+        <v>-355.55200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>80803.881287</v>
+        <v>80803.881286999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.445523</v>
+        <v>22.445523000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.907000</v>
+        <v>-576.90700000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>80814.759513</v>
+        <v>80814.759512999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.448544</v>
+        <v>22.448543999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.500000</v>
+        <v>1616.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-825.887000</v>
+        <v>-825.88699999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>80826.517177</v>
+        <v>80826.517177000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.451810</v>
+        <v>22.451809999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1768.720000</v>
+        <v>1768.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1096.920000</v>
+        <v>-1096.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>80838.250538</v>
+        <v>80838.250537999993</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.455070</v>
+        <v>22.455069999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2185.690000</v>
+        <v>2185.69</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1752.120000</v>
+        <v>-1752.12</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>80666.499374</v>
+        <v>80666.499374000006</v>
       </c>
       <c r="B15" s="1">
-        <v>22.407361</v>
+        <v>22.407361000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1152.050000</v>
+        <v>1152.05</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.019000</v>
+        <v>-258.01900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>80676.624218</v>
+        <v>80676.624217999997</v>
       </c>
       <c r="G15" s="1">
         <v>22.410173</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.840000</v>
+        <v>1173.8399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.226000</v>
+        <v>-217.226</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>80686.887414</v>
+        <v>80686.887413999997</v>
       </c>
       <c r="L15" s="1">
         <v>22.413024</v>
       </c>
       <c r="M15" s="1">
-        <v>1202.830000</v>
+        <v>1202.83</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.047000</v>
+        <v>-152.047</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>80697.040052</v>
+        <v>80697.040051999997</v>
       </c>
       <c r="Q15" s="1">
         <v>22.415844</v>
       </c>
       <c r="R15" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.880000</v>
+        <v>-129.88</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>80707.201559</v>
+        <v>80707.201558999994</v>
       </c>
       <c r="V15" s="1">
-        <v>22.418667</v>
+        <v>22.418666999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.969000</v>
+        <v>-108.96899999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>80717.405290</v>
+        <v>80717.405289999995</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.421501</v>
+        <v>22.421500999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1227.590000</v>
+        <v>1227.5899999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.783100</v>
+        <v>-91.783100000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>80727.903085</v>
+        <v>80727.903084999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.424418</v>
+        <v>22.424417999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1227.500000</v>
+        <v>1227.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.597200</v>
+        <v>-86.597200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>80738.400414</v>
+        <v>80738.400414000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.427333</v>
+        <v>22.427333000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1234.910000</v>
+        <v>1234.9100000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.697700</v>
+        <v>-89.697699999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>80749.539080</v>
+        <v>80749.539080000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.430428</v>
+        <v>22.430427999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.397000</v>
+        <v>-101.39700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>80760.564176</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.433490</v>
+        <v>22.433489999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.790000</v>
+        <v>1252.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.560000</v>
+        <v>-120.56</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>80771.184483</v>
+        <v>80771.184483000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.436440</v>
+        <v>22.436440000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.870000</v>
+        <v>-137.87</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>80782.168388</v>
+        <v>80782.168388000006</v>
       </c>
       <c r="BE15" s="1">
         <v>22.439491</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.513000</v>
+        <v>-219.51300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>80793.332838</v>
+        <v>80793.332838000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.442592</v>
+        <v>22.442592000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.559000</v>
+        <v>-355.55900000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>80804.589543</v>
+        <v>80804.589542999995</v>
       </c>
       <c r="BO15" s="1">
         <v>22.445719</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.899000</v>
+        <v>-576.899</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>80815.537736</v>
+        <v>80815.537735999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.448760</v>
+        <v>22.44876</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.440000</v>
+        <v>1616.44</v>
       </c>
       <c r="BV15" s="1">
-        <v>-825.955000</v>
+        <v>-825.95500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>80826.649609</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.451847</v>
+        <v>22.451847000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1768.600000</v>
+        <v>1768.6</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1096.830000</v>
+        <v>-1096.83</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>80838.781258</v>
+        <v>80838.781258000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.455217</v>
+        <v>22.455217000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2185.010000</v>
+        <v>2185.0100000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1750.250000</v>
+        <v>-1750.25</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>80666.923436</v>
+        <v>80666.923435999997</v>
       </c>
       <c r="B16" s="1">
-        <v>22.407479</v>
+        <v>22.407478999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1152.420000</v>
+        <v>1152.42</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.813000</v>
+        <v>-257.81299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>80677.047279</v>
+        <v>80677.047279000006</v>
       </c>
       <c r="G16" s="1">
-        <v>22.410291</v>
+        <v>22.410291000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1174.040000</v>
+        <v>1174.04</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.951000</v>
+        <v>-216.95099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>80687.163187</v>
+        <v>80687.163186999998</v>
       </c>
       <c r="L16" s="1">
-        <v>22.413101</v>
+        <v>22.413101000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1202.570000</v>
+        <v>1202.57</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.914000</v>
+        <v>-151.91399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>80697.390196</v>
+        <v>80697.390195999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.415942</v>
+        <v>22.415942000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.931000</v>
+        <v>-129.93100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>80707.544296</v>
+        <v>80707.544295999993</v>
       </c>
       <c r="V16" s="1">
-        <v>22.418762</v>
+        <v>22.418762000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1219.590000</v>
+        <v>1219.5899999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.019000</v>
+        <v>-109.01900000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>80717.753299</v>
+        <v>80717.753299000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.421598</v>
+        <v>22.421597999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1227.670000</v>
+        <v>1227.67</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.798800</v>
+        <v>-91.7988</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>80728.242843</v>
@@ -4169,2401 +4585,2401 @@
         <v>22.424512</v>
       </c>
       <c r="AG16" s="1">
-        <v>1227.360000</v>
+        <v>1227.3599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.724100</v>
+        <v>-86.724100000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>80739.098318</v>
+        <v>80739.098318000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.427527</v>
+        <v>22.427527000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1234.840000</v>
+        <v>1234.8399999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.714200</v>
+        <v>-89.714200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>80749.897184</v>
+        <v>80749.897184000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.430527</v>
+        <v>22.430527000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.880000</v>
+        <v>1242.8800000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.406000</v>
+        <v>-101.40600000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>80760.927216</v>
+        <v>80760.927215999996</v>
       </c>
       <c r="AU16" s="1">
         <v>22.433591</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.810000</v>
+        <v>1252.81</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.528000</v>
+        <v>-120.52800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>80771.563931</v>
+        <v>80771.563930999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>22.436546</v>
       </c>
       <c r="BA16" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.887000</v>
+        <v>-137.887</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>80782.843940</v>
+        <v>80782.843940000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.439679</v>
+        <v>22.439679000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.532000</v>
+        <v>-219.53200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>80794.021285</v>
+        <v>80794.021284999995</v>
       </c>
       <c r="BJ16" s="1">
         <v>22.442784</v>
       </c>
       <c r="BK16" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.550000</v>
+        <v>-355.55</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>80804.700150</v>
+        <v>80804.700150000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.445750</v>
+        <v>22.44575</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.908000</v>
+        <v>-576.90800000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>80815.998023</v>
+        <v>80815.998022999993</v>
       </c>
       <c r="BT16" s="1">
         <v>22.448888</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.480000</v>
+        <v>1616.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-825.919000</v>
+        <v>-825.91899999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>80827.074185</v>
+        <v>80827.074185000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.451965</v>
+        <v>22.451965000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1768.660000</v>
+        <v>1768.66</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1096.970000</v>
+        <v>-1096.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>80839.321400</v>
+        <v>80839.321400000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.455367</v>
+        <v>22.455366999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2184.470000</v>
+        <v>2184.4699999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1753.020000</v>
+        <v>-1753.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>80667.200207</v>
+        <v>80667.200207000002</v>
       </c>
       <c r="B17" s="1">
         <v>22.407556</v>
       </c>
       <c r="C17" s="1">
-        <v>1151.840000</v>
+        <v>1151.8399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.877000</v>
+        <v>-257.87700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>80677.318094</v>
+        <v>80677.318094000002</v>
       </c>
       <c r="G17" s="1">
         <v>22.410366</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.420000</v>
+        <v>1174.42</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.426000</v>
+        <v>-218.42599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>80687.503954</v>
       </c>
       <c r="L17" s="1">
-        <v>22.413196</v>
+        <v>22.413195999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.934000</v>
+        <v>-151.934</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>80697.738884</v>
+        <v>80697.738884000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.416039</v>
+        <v>22.416039000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1210.900000</v>
+        <v>1210.9000000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.841000</v>
+        <v>-129.84100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>80707.889510</v>
+        <v>80707.889509999994</v>
       </c>
       <c r="V17" s="1">
         <v>22.418858</v>
       </c>
       <c r="W17" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.044000</v>
+        <v>-109.044</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>80718.449368</v>
+        <v>80718.449368000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.421791</v>
+        <v>22.421790999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1227.560000</v>
+        <v>1227.56</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.836100</v>
+        <v>-91.836100000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>80728.939722</v>
+        <v>80728.939721999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.424705</v>
+        <v>22.424704999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.570000</v>
+        <v>1227.57</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.630600</v>
+        <v>-86.630600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>80739.445485</v>
+        <v>80739.445485000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.427624</v>
+        <v>22.427624000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1234.880000</v>
+        <v>1234.8800000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.704400</v>
+        <v>-89.704400000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>80750.258270</v>
+        <v>80750.258270000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.430627</v>
+        <v>22.430627000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.416000</v>
+        <v>-101.416</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>80761.293263</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.433693</v>
+        <v>22.433693000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.539000</v>
+        <v>-120.539</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>80772.243441</v>
+        <v>80772.243440999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.436734</v>
+        <v>22.436734000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.899000</v>
+        <v>-137.899</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>80783.279923</v>
+        <v>80783.279922999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.439800</v>
+        <v>22.439800000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.070000</v>
+        <v>1301.07</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.487000</v>
+        <v>-219.48699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>80794.470201</v>
+        <v>80794.470201000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.442908</v>
+        <v>22.442907999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.546000</v>
+        <v>-355.54599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>80805.121749</v>
+        <v>80805.121748999998</v>
       </c>
       <c r="BO17" s="1">
         <v>22.445867</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.610000</v>
+        <v>1484.61</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.930000</v>
+        <v>-576.92999999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>80816.429543</v>
+        <v>80816.429543000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.449008</v>
+        <v>22.449007999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.420000</v>
+        <v>1616.42</v>
       </c>
       <c r="BV17" s="1">
-        <v>-825.851000</v>
+        <v>-825.851</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>80827.492808</v>
+        <v>80827.492807999995</v>
       </c>
       <c r="BY17" s="1">
         <v>22.452081</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1768.630000</v>
+        <v>1768.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1096.880000</v>
+        <v>-1096.8800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>80839.862573</v>
+        <v>80839.862573000006</v>
       </c>
       <c r="CD17" s="1">
         <v>22.455517</v>
       </c>
       <c r="CE17" s="1">
-        <v>2185.930000</v>
+        <v>2185.9299999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1750.540000</v>
+        <v>-1750.54</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>80667.537980</v>
+        <v>80667.537979999994</v>
       </c>
       <c r="B18" s="1">
-        <v>22.407649</v>
+        <v>22.407648999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1151.810000</v>
+        <v>1151.81</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.172000</v>
+        <v>-258.17200000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>80677.662814</v>
+        <v>80677.662813999996</v>
       </c>
       <c r="G18" s="1">
-        <v>22.410462</v>
+        <v>22.410461999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1174.300000</v>
+        <v>1174.3</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.461000</v>
+        <v>-216.46100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>80687.852624</v>
+        <v>80687.852624000006</v>
       </c>
       <c r="L18" s="1">
-        <v>22.413292</v>
+        <v>22.413291999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1202.680000</v>
+        <v>1202.68</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.900000</v>
+        <v>-151.9</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>80698.432786</v>
+        <v>80698.432786000005</v>
       </c>
       <c r="Q18" s="1">
         <v>22.416231</v>
       </c>
       <c r="R18" s="1">
-        <v>1210.920000</v>
+        <v>1210.92</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.827000</v>
+        <v>-129.827</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>80708.576470</v>
+        <v>80708.57647</v>
       </c>
       <c r="V18" s="1">
-        <v>22.419049</v>
+        <v>22.419049000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.937000</v>
+        <v>-108.937</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>80718.800503</v>
+        <v>80718.800503000006</v>
       </c>
       <c r="AA18" s="1">
         <v>22.421889</v>
       </c>
       <c r="AB18" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.853100</v>
+        <v>-91.853099999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>80729.284938</v>
+        <v>80729.284937999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.424801</v>
+        <v>22.424800999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.654000</v>
+        <v>-86.653999999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>80739.792684</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.427720</v>
+        <v>22.427720000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.720500</v>
+        <v>-89.720500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>80750.936797</v>
+        <v>80750.936797000002</v>
       </c>
       <c r="AP18" s="1">
         <v>22.430816</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.431000</v>
+        <v>-101.431</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>80761.972783</v>
+        <v>80761.972783000005</v>
       </c>
       <c r="AU18" s="1">
         <v>22.433881</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.544000</v>
+        <v>-120.544</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>80772.648682</v>
+        <v>80772.648681999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>22.436847</v>
       </c>
       <c r="BA18" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.899000</v>
+        <v>-137.899</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>80783.641010</v>
+        <v>80783.641010000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.439900</v>
+        <v>22.439900000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.515000</v>
+        <v>-219.51499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>80794.843683</v>
+        <v>80794.843682999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>22.443012</v>
       </c>
       <c r="BK18" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.534000</v>
+        <v>-355.53399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>80805.519081</v>
+        <v>80805.519081000006</v>
       </c>
       <c r="BO18" s="1">
         <v>22.445978</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.895000</v>
+        <v>-576.89499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>80816.860107</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.449128</v>
+        <v>22.449128000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.400000</v>
+        <v>1616.4</v>
       </c>
       <c r="BV18" s="1">
-        <v>-825.908000</v>
+        <v>-825.90800000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>80827.929287</v>
+        <v>80827.929287000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.452203</v>
+        <v>22.452203000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1768.720000</v>
+        <v>1768.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1096.650000</v>
+        <v>-1096.6500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>80840.402679</v>
+        <v>80840.402679000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.455667</v>
+        <v>22.455666999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>2184.170000</v>
+        <v>2184.17</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1751.420000</v>
+        <v>-1751.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>80667.883195</v>
+        <v>80667.883195000002</v>
       </c>
       <c r="B19" s="1">
-        <v>22.407745</v>
+        <v>22.407744999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1152.180000</v>
+        <v>1152.18</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.925000</v>
+        <v>-257.92500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>80678.008029</v>
+        <v>80678.008029000004</v>
       </c>
       <c r="G19" s="1">
-        <v>22.410558</v>
+        <v>22.410558000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1174.420000</v>
+        <v>1174.42</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.680000</v>
+        <v>-217.68</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>80688.549999</v>
+        <v>80688.549998999995</v>
       </c>
       <c r="L19" s="1">
-        <v>22.413486</v>
+        <v>22.413485999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1202.930000</v>
+        <v>1202.93</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.133000</v>
+        <v>-152.13300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>80698.783458</v>
+        <v>80698.783458000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.416329</v>
+        <v>22.416329000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1210.960000</v>
+        <v>1210.96</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.788000</v>
+        <v>-129.78800000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>80708.921687</v>
+        <v>80708.921686999995</v>
       </c>
       <c r="V19" s="1">
         <v>22.419145</v>
       </c>
       <c r="W19" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.078000</v>
+        <v>-109.078</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>80719.148695</v>
+        <v>80719.148694999996</v>
       </c>
       <c r="AA19" s="1">
         <v>22.421986</v>
       </c>
       <c r="AB19" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.806000</v>
+        <v>-91.805999999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>80729.631643</v>
+        <v>80729.631643000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.424898</v>
+        <v>22.424897999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.492000</v>
+        <v>-86.492000000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>80740.456332</v>
+        <v>80740.456332000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.427905</v>
+        <v>22.427904999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.870000</v>
+        <v>1234.8699999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.707900</v>
+        <v>-89.707899999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>80751.359388</v>
+        <v>80751.359387999997</v>
       </c>
       <c r="AP19" s="1">
         <v>22.430933</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.890000</v>
+        <v>1242.8900000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.421000</v>
+        <v>-101.42100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>80762.388430</v>
+        <v>80762.388430000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.433997</v>
+        <v>22.433997000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.541000</v>
+        <v>-120.541</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>80773.023648</v>
+        <v>80773.023648000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.436951</v>
+        <v>22.436951000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.879000</v>
+        <v>-137.87899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>80784.001105</v>
+        <v>80784.001105000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.440000</v>
+        <v>22.44</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.060000</v>
+        <v>1301.06</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.505000</v>
+        <v>-219.505</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>80795.210194</v>
+        <v>80795.210193999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.443114</v>
+        <v>22.443114000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.563000</v>
+        <v>-355.56299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>80805.941636</v>
+        <v>80805.941636000003</v>
       </c>
       <c r="BO19" s="1">
         <v>22.446095</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.889000</v>
+        <v>-576.88900000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>80817.270261</v>
+        <v>80817.270260999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.449242</v>
+        <v>22.449242000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.400000</v>
+        <v>1616.4</v>
       </c>
       <c r="BV19" s="1">
-        <v>-825.833000</v>
+        <v>-825.83299999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>80828.363783</v>
+        <v>80828.363782999993</v>
       </c>
       <c r="BY19" s="1">
         <v>22.452323</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1768.540000</v>
+        <v>1768.54</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1096.850000</v>
+        <v>-1096.8499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>80840.942496</v>
+        <v>80840.942496000003</v>
       </c>
       <c r="CD19" s="1">
         <v>22.455817</v>
       </c>
       <c r="CE19" s="1">
-        <v>2185.660000</v>
+        <v>2185.66</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1752.040000</v>
+        <v>-1752.04</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>80668.566682</v>
+        <v>80668.566682000004</v>
       </c>
       <c r="B20" s="1">
-        <v>22.407935</v>
+        <v>22.407934999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1152.020000</v>
+        <v>1152.02</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.992000</v>
+        <v>-257.99200000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>80678.705404</v>
+        <v>80678.705403999993</v>
       </c>
       <c r="G20" s="1">
-        <v>22.410752</v>
+        <v>22.410751999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1174.130000</v>
+        <v>1174.1300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.562000</v>
+        <v>-217.56200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>80688.901200</v>
+        <v>80688.901199999993</v>
       </c>
       <c r="L20" s="1">
         <v>22.413584</v>
       </c>
       <c r="M20" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.917000</v>
+        <v>-151.917</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>80699.131651</v>
+        <v>80699.131651000003</v>
       </c>
       <c r="Q20" s="1">
         <v>22.416425</v>
       </c>
       <c r="R20" s="1">
-        <v>1211.020000</v>
+        <v>1211.02</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.833000</v>
+        <v>-129.833</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>80709.262437</v>
+        <v>80709.262436999998</v>
       </c>
       <c r="V20" s="1">
-        <v>22.419240</v>
+        <v>22.419239999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1219.760000</v>
+        <v>1219.76</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.152000</v>
+        <v>-109.152</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>80719.812838</v>
+        <v>80719.812837999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.422170</v>
+        <v>22.422170000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.885300</v>
+        <v>-91.885300000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>80730.296281</v>
+        <v>80730.296281000003</v>
       </c>
       <c r="AF20" s="1">
         <v>22.425082</v>
       </c>
       <c r="AG20" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.651000</v>
+        <v>-86.650999999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>80740.840234</v>
+        <v>80740.840234000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.428011</v>
+        <v>22.428011000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.739000</v>
+        <v>-89.739000000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>80751.719980</v>
+        <v>80751.719979999994</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.431033</v>
+        <v>22.431032999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.413000</v>
+        <v>-101.413</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>80762.752494</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.434098</v>
+        <v>22.434097999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.790000</v>
+        <v>1252.79</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.526000</v>
+        <v>-120.526</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>80773.404079</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.437057</v>
+        <v>22.437056999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.880000</v>
+        <v>-137.88</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>80784.422706</v>
+        <v>80784.422705999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.440117</v>
+        <v>22.440117000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.100000</v>
+        <v>1301.0999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.496000</v>
+        <v>-219.49600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>80795.641218</v>
+        <v>80795.641218000004</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.443234</v>
       </c>
       <c r="BK20" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.557000</v>
+        <v>-355.55700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>80806.337444</v>
+        <v>80806.337444000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.446205</v>
+        <v>22.446204999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.829000</v>
+        <v>-576.82899999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>80817.700789</v>
+        <v>80817.700788999995</v>
       </c>
       <c r="BT20" s="1">
         <v>22.449361</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.420000</v>
+        <v>1616.42</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.907000</v>
+        <v>-825.90700000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>80828.784886</v>
+        <v>80828.784885999994</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.452440</v>
+        <v>22.452439999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1768.780000</v>
+        <v>1768.78</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1096.890000</v>
+        <v>-1096.8900000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>80841.482471</v>
+        <v>80841.482470999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.455967</v>
+        <v>22.455967000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2184.300000</v>
+        <v>2184.3000000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1750.020000</v>
+        <v>-1750.02</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>80668.908425</v>
+        <v>80668.908425000001</v>
       </c>
       <c r="B21" s="1">
-        <v>22.408030</v>
+        <v>22.40803</v>
       </c>
       <c r="C21" s="1">
-        <v>1151.950000</v>
+        <v>1151.95</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.177000</v>
+        <v>-258.17700000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>80679.059053</v>
+        <v>80679.059053000004</v>
       </c>
       <c r="G21" s="1">
-        <v>22.410850</v>
+        <v>22.41085</v>
       </c>
       <c r="H21" s="1">
-        <v>1174.220000</v>
+        <v>1174.22</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.769000</v>
+        <v>-217.76900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>80689.247374</v>
+        <v>80689.247373999999</v>
       </c>
       <c r="L21" s="1">
-        <v>22.413680</v>
+        <v>22.413679999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.840000</v>
+        <v>-151.84</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>80699.795793</v>
+        <v>80699.795792999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.416610</v>
+        <v>22.416609999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1210.950000</v>
+        <v>1210.95</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.871000</v>
+        <v>-129.87100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>80709.923604</v>
+        <v>80709.923603999996</v>
       </c>
       <c r="V21" s="1">
-        <v>22.419423</v>
+        <v>22.419422999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.174000</v>
+        <v>-109.17400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>80720.194757</v>
+        <v>80720.194757000005</v>
       </c>
       <c r="AA21" s="1">
         <v>22.422276</v>
       </c>
       <c r="AB21" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.836600</v>
+        <v>-91.836600000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>80730.662327</v>
+        <v>80730.662326999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.425184</v>
+        <v>22.425184000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1227.800000</v>
+        <v>1227.8</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.565100</v>
+        <v>-86.565100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>80741.190410</v>
+        <v>80741.190409999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.428108</v>
+        <v>22.428108000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1234.880000</v>
+        <v>1234.8800000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.715800</v>
+        <v>-89.715800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>80752.082059</v>
+        <v>80752.082058999993</v>
       </c>
       <c r="AP21" s="1">
         <v>22.431134</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.391000</v>
+        <v>-101.39100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>80763.116069</v>
+        <v>80763.116068999996</v>
       </c>
       <c r="AU21" s="1">
         <v>22.434199</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.511000</v>
+        <v>-120.511</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>80773.831636</v>
+        <v>80773.831636000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.437175</v>
       </c>
       <c r="BA21" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.886000</v>
+        <v>-137.886</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>80784.723813</v>
+        <v>80784.723813000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.440201</v>
+        <v>22.440200999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.110000</v>
+        <v>1301.1099999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.507000</v>
+        <v>-219.50700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>80795.988451</v>
+        <v>80795.988450999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.443330</v>
+        <v>22.44333</v>
       </c>
       <c r="BK21" s="1">
-        <v>1370.480000</v>
+        <v>1370.48</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.531000</v>
+        <v>-355.53100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>80806.759043</v>
+        <v>80806.759042999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.446322</v>
+        <v>22.446321999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.870000</v>
+        <v>-576.87</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>80818.130820</v>
+        <v>80818.130820000006</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.449481</v>
+        <v>22.449480999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.390000</v>
+        <v>1616.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.965000</v>
+        <v>-825.96500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>80829.203510</v>
+        <v>80829.203510000007</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.452557</v>
+        <v>22.452556999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1768.640000</v>
+        <v>1768.64</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1096.620000</v>
+        <v>-1096.6199999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>80842.021157</v>
+        <v>80842.021156999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.456117</v>
+        <v>22.456116999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2184.740000</v>
+        <v>2184.7399999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1752.770000</v>
+        <v>-1752.77</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>80669.251689</v>
+        <v>80669.251688999997</v>
       </c>
       <c r="B22" s="1">
-        <v>22.408125</v>
+        <v>22.408124999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1152.210000</v>
+        <v>1152.21</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.032000</v>
+        <v>-258.03199999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80679.712283</v>
+        <v>80679.712283000001</v>
       </c>
       <c r="G22" s="1">
-        <v>22.411031</v>
+        <v>22.411031000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.600000</v>
+        <v>1173.5999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.582000</v>
+        <v>-217.58199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>80689.910557</v>
+        <v>80689.910556999996</v>
       </c>
       <c r="L22" s="1">
         <v>22.413864</v>
       </c>
       <c r="M22" s="1">
-        <v>1202.600000</v>
+        <v>1202.5999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.166000</v>
+        <v>-152.166</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>80700.178209</v>
+        <v>80700.178209000005</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.416716</v>
+        <v>22.416716000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1210.920000</v>
+        <v>1210.92</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.882000</v>
+        <v>-129.88200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>80710.296099</v>
+        <v>80710.296098999999</v>
       </c>
       <c r="V22" s="1">
-        <v>22.419527</v>
+        <v>22.419526999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.008000</v>
+        <v>-109.008</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>80720.543941</v>
+        <v>80720.543940999996</v>
       </c>
       <c r="AA22" s="1">
         <v>22.422373</v>
       </c>
       <c r="AB22" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.805400</v>
+        <v>-91.805400000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>80731.007048</v>
+        <v>80731.007047999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.425280</v>
+        <v>22.425280000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.670200</v>
+        <v>-86.670199999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>80741.538106</v>
+        <v>80741.538106000007</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.428205</v>
+        <v>22.428204999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1234.880000</v>
+        <v>1234.8800000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.752300</v>
+        <v>-89.752300000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>80752.518044</v>
+        <v>80752.518043999997</v>
       </c>
       <c r="AP22" s="1">
         <v>22.431255</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.890000</v>
+        <v>1242.8900000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.418000</v>
+        <v>-101.41800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>80763.538653</v>
+        <v>80763.538652999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.434316</v>
+        <v>22.434315999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.800000</v>
+        <v>1252.8</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.546000</v>
+        <v>-120.54600000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>80774.121326</v>
+        <v>80774.121325999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.437256</v>
+        <v>22.437256000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.898000</v>
+        <v>-137.898</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>80785.085866</v>
+        <v>80785.085865999994</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.440302</v>
+        <v>22.440301999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.110000</v>
+        <v>1301.1099999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.528000</v>
+        <v>-219.52799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>80796.364881</v>
+        <v>80796.364881000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.443435</v>
+        <v>22.443435000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.585000</v>
+        <v>-355.58499999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>80807.157826</v>
+        <v>80807.157825999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.446433</v>
+        <v>22.446432999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.872000</v>
+        <v>-576.87199999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>80818.552916</v>
+        <v>80818.552916000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.449598</v>
+        <v>22.449598000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.370000</v>
+        <v>1616.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.909000</v>
+        <v>-825.90899999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>80829.632053</v>
+        <v>80829.632052999994</v>
       </c>
       <c r="BY22" s="1">
         <v>22.452676</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1768.680000</v>
+        <v>1768.68</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1096.850000</v>
+        <v>-1096.8499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>80842.562756</v>
+        <v>80842.562755999999</v>
       </c>
       <c r="CD22" s="1">
         <v>22.456267</v>
       </c>
       <c r="CE22" s="1">
-        <v>2185.990000</v>
+        <v>2185.9899999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1750.830000</v>
+        <v>-1750.83</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>80669.899464</v>
+        <v>80669.899464000002</v>
       </c>
       <c r="B23" s="1">
-        <v>22.408305</v>
+        <v>22.408304999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1152.200000</v>
+        <v>1152.2</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.073000</v>
+        <v>-258.07299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>80680.087293</v>
+        <v>80680.087293000004</v>
       </c>
       <c r="G23" s="1">
-        <v>22.411135</v>
+        <v>22.411135000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.630000</v>
+        <v>1173.6300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.948000</v>
+        <v>-216.94800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>80690.284509</v>
+        <v>80690.284509000005</v>
       </c>
       <c r="L23" s="1">
-        <v>22.413968</v>
+        <v>22.413968000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1202.610000</v>
+        <v>1202.6099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.008000</v>
+        <v>-152.00800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>80700.529376</v>
+        <v>80700.529376000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.416814</v>
+        <v>22.416813999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1210.900000</v>
+        <v>1210.9000000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.881000</v>
+        <v>-129.881</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>80710.634866</v>
+        <v>80710.634865999993</v>
       </c>
       <c r="V23" s="1">
-        <v>22.419621</v>
+        <v>22.419620999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1219.630000</v>
+        <v>1219.6300000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.062000</v>
+        <v>-109.062</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>80720.890692</v>
+        <v>80720.890692000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.422470</v>
+        <v>22.422470000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1227.590000</v>
+        <v>1227.5899999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.811500</v>
+        <v>-91.811499999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>80731.438071</v>
+        <v>80731.438070999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.425399</v>
+        <v>22.425398999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1227.580000</v>
+        <v>1227.58</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.625800</v>
+        <v>-86.625799999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>80741.960202</v>
+        <v>80741.960202000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.428322</v>
+        <v>22.428322000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1234.890000</v>
+        <v>1234.8900000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.684800</v>
+        <v>-89.684799999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>80752.800267</v>
+        <v>80752.800266999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.431333</v>
+        <v>22.431332999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.423000</v>
+        <v>-101.423</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>80763.863570</v>
+        <v>80763.863570000001</v>
       </c>
       <c r="AU23" s="1">
         <v>22.434407</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.790000</v>
+        <v>1252.79</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.524000</v>
+        <v>-120.524</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>80774.480894</v>
+        <v>80774.480893999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.437356</v>
+        <v>22.437356000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.890000</v>
+        <v>-137.88999999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>80785.442976</v>
+        <v>80785.442976000006</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.440401</v>
+        <v>22.440401000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.090000</v>
+        <v>1301.0899999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.489000</v>
+        <v>-219.489</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>80796.739393</v>
+        <v>80796.739392999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.443539</v>
+        <v>22.443539000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1370.490000</v>
+        <v>1370.49</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.536000</v>
+        <v>-355.536</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>80807.580419</v>
+        <v>80807.580419000005</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.446550</v>
+        <v>22.446549999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.842000</v>
+        <v>-576.84199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>80818.971045</v>
+        <v>80818.971044999998</v>
       </c>
       <c r="BT23" s="1">
         <v>22.449714</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.390000</v>
+        <v>1616.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-825.921000</v>
+        <v>-825.92100000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>80830.047702</v>
+        <v>80830.047701999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.452791</v>
+        <v>22.452791000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1768.580000</v>
+        <v>1768.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.900000</v>
+        <v>-1096.9000000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>80843.102916</v>
+        <v>80843.102916000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.456417</v>
+        <v>22.456416999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2183.510000</v>
+        <v>2183.5100000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1751.670000</v>
+        <v>-1751.67</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>80670.278872</v>
+        <v>80670.278871999995</v>
       </c>
       <c r="B24" s="1">
-        <v>22.408411</v>
+        <v>22.408411000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1152.120000</v>
+        <v>1152.1199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.886000</v>
+        <v>-257.88600000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>80680.433994</v>
+        <v>80680.433994000006</v>
       </c>
       <c r="G24" s="1">
-        <v>22.411232</v>
+        <v>22.411231999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1174.000000</v>
+        <v>1174</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.060000</v>
+        <v>-217.06</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>80690.626781</v>
+        <v>80690.626780999999</v>
       </c>
       <c r="L24" s="1">
-        <v>22.414063</v>
+        <v>22.414062999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.778000</v>
+        <v>-151.77799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>80700.874591</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.416910</v>
+        <v>22.416910000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.842000</v>
+        <v>-129.84200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>80710.989023</v>
+        <v>80710.989023000002</v>
       </c>
       <c r="V24" s="1">
-        <v>22.419719</v>
+        <v>22.419719000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1219.690000</v>
+        <v>1219.69</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.982000</v>
+        <v>-108.982</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>80721.313765</v>
+        <v>80721.313764999999</v>
       </c>
       <c r="AA24" s="1">
         <v>22.422587</v>
       </c>
       <c r="AB24" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.911000</v>
+        <v>-91.911000000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>80731.708432</v>
+        <v>80731.708431999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.425475</v>
+        <v>22.425474999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1227.700000</v>
+        <v>1227.7</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.782500</v>
+        <v>-86.782499999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>80742.238985</v>
+        <v>80742.238985000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.428400</v>
+        <v>22.4284</v>
       </c>
       <c r="AL24" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.725700</v>
+        <v>-89.725700000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>80753.160362</v>
+        <v>80753.160361999995</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.431433</v>
+        <v>22.431432999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.405000</v>
+        <v>-101.405</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>80764.210733</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.434503</v>
+        <v>22.434502999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.524000</v>
+        <v>-120.524</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>80774.838014</v>
+        <v>80774.838013999994</v>
       </c>
       <c r="AZ24" s="1">
         <v>22.437455</v>
       </c>
       <c r="BA24" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.876000</v>
+        <v>-137.876</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>80786.170142</v>
+        <v>80786.170142000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.440603</v>
+        <v>22.440602999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.070000</v>
+        <v>1301.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.511000</v>
+        <v>-219.511</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>80797.492288</v>
+        <v>80797.492287999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.443748</v>
+        <v>22.443747999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1370.520000</v>
+        <v>1370.52</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.514000</v>
+        <v>-355.51400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>80807.972786</v>
+        <v>80807.972785999998</v>
       </c>
       <c r="BO24" s="1">
         <v>22.446659</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.904000</v>
+        <v>-576.904</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>80819.399090</v>
+        <v>80819.399090000006</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.449833</v>
+        <v>22.449833000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.350000</v>
+        <v>1616.35</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.804000</v>
+        <v>-825.80399999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>80830.492153</v>
+        <v>80830.492152999999</v>
       </c>
       <c r="BY24" s="1">
         <v>22.452914</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1768.620000</v>
+        <v>1768.62</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1096.900000</v>
+        <v>-1096.9000000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>80843.953539</v>
+        <v>80843.953538999995</v>
       </c>
       <c r="CD24" s="1">
         <v>22.456654</v>
       </c>
       <c r="CE24" s="1">
-        <v>2185.550000</v>
+        <v>2185.5500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1749.930000</v>
+        <v>-1749.93</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>80670.617672</v>
+        <v>80670.617671999993</v>
       </c>
       <c r="B25" s="1">
-        <v>22.408505</v>
+        <v>22.408505000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1152.100000</v>
+        <v>1152.0999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.912000</v>
+        <v>-257.91199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>80680.778218</v>
+        <v>80680.778218000007</v>
       </c>
       <c r="G25" s="1">
         <v>22.411327</v>
       </c>
       <c r="H25" s="1">
-        <v>1174.370000</v>
+        <v>1174.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.816000</v>
+        <v>-216.816</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>80690.976926</v>
+        <v>80690.976926000003</v>
       </c>
       <c r="L25" s="1">
-        <v>22.414160</v>
+        <v>22.414159999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1202.740000</v>
+        <v>1202.74</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.898000</v>
+        <v>-151.898</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>80701.314047</v>
+        <v>80701.314047000007</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.417032</v>
+        <v>22.417031999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.817000</v>
+        <v>-129.81700000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>80711.423010</v>
+        <v>80711.423009999999</v>
       </c>
       <c r="V25" s="1">
-        <v>22.419840</v>
+        <v>22.419840000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>80721.590996</v>
+        <v>80721.590995999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.422664</v>
+        <v>22.422664000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1227.680000</v>
+        <v>1227.68</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.728000</v>
+        <v>-91.727999999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>80732.051127</v>
+        <v>80732.051126999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.425570</v>
+        <v>22.42557</v>
       </c>
       <c r="AG25" s="1">
-        <v>1227.510000</v>
+        <v>1227.51</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.606600</v>
+        <v>-86.6066</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>80742.586152</v>
+        <v>80742.586152000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.428496</v>
+        <v>22.428495999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1234.910000</v>
+        <v>1234.9100000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.703700</v>
+        <v>-89.703699999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>80753.520953</v>
+        <v>80753.520952999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.431534</v>
+        <v>22.431533999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.389000</v>
+        <v>-101.389</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>80764.773691</v>
+        <v>80764.773690999995</v>
       </c>
       <c r="AU25" s="1">
         <v>22.434659</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.533000</v>
+        <v>-120.533</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>80775.555229</v>
+        <v>80775.555229000005</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.437654</v>
+        <v>22.437653999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.871000</v>
+        <v>-137.87100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>80786.556494</v>
+        <v>80786.556494000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.440710</v>
+        <v>22.440709999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.497000</v>
+        <v>-219.49700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>80797.866767</v>
@@ -6572,332 +6988,333 @@
         <v>22.443852</v>
       </c>
       <c r="BK25" s="1">
-        <v>1370.510000</v>
+        <v>1370.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.513000</v>
+        <v>-355.51299999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>80808.395843</v>
+        <v>80808.395843000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.446777</v>
+        <v>22.446777000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.700000</v>
+        <v>1484.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.854000</v>
+        <v>-576.85400000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>80820.115809</v>
+        <v>80820.115808999995</v>
       </c>
       <c r="BT25" s="1">
         <v>22.450032</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.370000</v>
+        <v>1616.37</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.832000</v>
+        <v>-825.83199999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>80831.240579</v>
+        <v>80831.240579000005</v>
       </c>
       <c r="BY25" s="1">
         <v>22.453122</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1768.710000</v>
+        <v>1768.71</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1096.790000</v>
+        <v>-1096.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>80844.181730</v>
+        <v>80844.181729999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.456717</v>
+        <v>22.456717000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2185.620000</v>
+        <v>2185.62</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1750.390000</v>
+        <v>-1750.39</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>80670.960407</v>
+        <v>80670.960407000006</v>
       </c>
       <c r="B26" s="1">
-        <v>22.408600</v>
+        <v>22.4086</v>
       </c>
       <c r="C26" s="1">
-        <v>1151.930000</v>
+        <v>1151.93</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.997000</v>
+        <v>-257.99700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>80681.207227</v>
+        <v>80681.207227000006</v>
       </c>
       <c r="G26" s="1">
-        <v>22.411446</v>
+        <v>22.411446000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.970000</v>
+        <v>1173.97</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.258000</v>
+        <v>-217.25800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>80691.399549</v>
+        <v>80691.399548999994</v>
       </c>
       <c r="L26" s="1">
-        <v>22.414278</v>
+        <v>22.414277999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1202.870000</v>
+        <v>1202.8699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.909000</v>
+        <v>-151.90899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>80701.578414</v>
+        <v>80701.578414000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.417105</v>
+        <v>22.417104999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.828000</v>
+        <v>-129.828</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>80711.692833</v>
+        <v>80711.692832999994</v>
       </c>
       <c r="V26" s="1">
         <v>22.419915</v>
       </c>
       <c r="W26" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.096000</v>
+        <v>-109.096</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>80721.938734</v>
+        <v>80721.938733999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.422761</v>
+        <v>22.422761000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.718700</v>
+        <v>-91.718699999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>80732.393862</v>
+        <v>80732.393861999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.425665</v>
+        <v>22.425664999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.564800</v>
+        <v>-86.564800000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>80742.938343</v>
+        <v>80742.938343000002</v>
       </c>
       <c r="AK26" s="1">
         <v>22.428594</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.721400</v>
+        <v>-89.721400000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>80754.240681</v>
+        <v>80754.240680999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.431734</v>
+        <v>22.431733999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.401000</v>
+        <v>-101.401</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>80764.939883</v>
+        <v>80764.939882999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.434706</v>
+        <v>22.434705999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.810000</v>
+        <v>1252.81</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.535000</v>
+        <v>-120.535</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>80775.915827</v>
+        <v>80775.915827000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.437754</v>
+        <v>22.437754000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.883000</v>
+        <v>-137.88300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>80786.915597</v>
+        <v>80786.915596999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.440810</v>
+        <v>22.440809999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.100000</v>
+        <v>1301.0999999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.495000</v>
+        <v>-219.495</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>80798.241247</v>
+        <v>80798.241246999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.443956</v>
       </c>
       <c r="BK26" s="1">
-        <v>1370.500000</v>
+        <v>1370.5</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.520000</v>
+        <v>-355.52</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>80809.107105</v>
+        <v>80809.107105000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.446974</v>
+        <v>22.446974000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.822000</v>
+        <v>-576.822</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>80820.240305</v>
+        <v>80820.240304999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.450067</v>
+        <v>22.450067000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.350000</v>
+        <v>1616.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.887000</v>
+        <v>-825.88699999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>80831.362099</v>
+        <v>80831.362099000005</v>
       </c>
       <c r="BY26" s="1">
         <v>22.453156</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1768.670000</v>
+        <v>1768.67</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1096.870000</v>
+        <v>-1096.8699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>80844.700018</v>
+        <v>80844.700018000003</v>
       </c>
       <c r="CD26" s="1">
         <v>22.456861</v>
       </c>
       <c r="CE26" s="1">
-        <v>2183.910000</v>
+        <v>2183.91</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1750.870000</v>
+        <v>-1750.87</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>